--- a/заказы/филиалы и опт/2024/03,24/29,03,24 Ост СЫР филиалы/Сыры на 02,04 (10-ка).xlsx
+++ b/заказы/филиалы и опт/2024/03,24/29,03,24 Ост СЫР филиалы/Сыры на 02,04 (10-ка).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\29,03,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA408361-77C5-42E2-8B96-C31A876D9D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188B02F-5512-49DC-A778-7E819431477D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
     <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -401,23 +401,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -425,28 +431,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>200</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
